--- a/Timing.xlsx
+++ b/Timing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hannsseidelgymnasiumde-my.sharepoint.com/personal/31kran_hsgy_de/Documents/Desktop/AImediCheck/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{B8F1BE71-CFC5-4369-AFE8-044D51CACBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2154798-BE18-4CDD-A288-4BA04D2509A9}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{B8F1BE71-CFC5-4369-AFE8-044D51CACBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16E13C90-CAC7-4F6E-9D6F-17E6EC67BC61}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EAFAD1F5-585C-47E7-95DE-C016721CC028}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAFAD1F5-585C-47E7-95DE-C016721CC028}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -170,71 +170,11 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -247,6 +187,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -568,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3807A430-18C7-42A5-AD6B-9A6815C075C2}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,9 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7B4F2A-3351-459F-B2F5-211A8A597930}">
   <dimension ref="A1:T84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5667,28 +5609,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:T42">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:T63">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:T84">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Timing.xlsx
+++ b/Timing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hannsseidelgymnasiumde-my.sharepoint.com/personal/31kran_hsgy_de/Documents/Desktop/AImediCheck/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{B8F1BE71-CFC5-4369-AFE8-044D51CACBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16E13C90-CAC7-4F6E-9D6F-17E6EC67BC61}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="8_{B8F1BE71-CFC5-4369-AFE8-044D51CACBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01277F9B-D624-4ED8-9266-27B5F71CE6AC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAFAD1F5-585C-47E7-95DE-C016721CC028}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Start</t>
   </si>
@@ -82,6 +82,27 @@
   </si>
   <si>
     <t>Averagehash</t>
+  </si>
+  <si>
+    <t>Insges</t>
+  </si>
+  <si>
+    <t>18,12,2024</t>
+  </si>
+  <si>
+    <t>Bild 67</t>
+  </si>
+  <si>
+    <t>Determine 100x100</t>
+  </si>
+  <si>
+    <t>Determine 250x250</t>
+  </si>
+  <si>
+    <t>Segment auf 640x608</t>
+  </si>
+  <si>
+    <t>Orient 250x250</t>
   </si>
 </sst>
 </file>
@@ -510,21 +531,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3807A430-18C7-42A5-AD6B-9A6815C075C2}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4">
-        <v>45644</v>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -532,16 +555,71 @@
       <c r="C1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1" s="4">
+        <v>45661</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="4">
+        <v>45661</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>45661</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3">
         <v>1734536284.4976399</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1735985285.6911299</v>
+      </c>
+      <c r="M4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1735985575.64065</v>
+      </c>
+      <c r="R4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1735986233.10024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -552,8 +630,38 @@
         <f>B5-B4</f>
         <v>8.9703800678253174</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1735985292.63392</v>
+      </c>
+      <c r="I5" s="3">
+        <f>H5-H4</f>
+        <v>6.9427900314331055</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1735985582.6159799</v>
+      </c>
+      <c r="O5" s="3">
+        <f>N5-N4</f>
+        <v>6.9753298759460449</v>
+      </c>
+      <c r="R5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1735986237.38083</v>
+      </c>
+      <c r="T5" s="3">
+        <f>S5-S4</f>
+        <v>4.2805900573730469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -564,8 +672,38 @@
         <f t="shared" ref="C6:C8" si="0">B6-B5</f>
         <v>6.081089973449707</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>1735985295.37414</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" ref="I6:I8" si="1">H6-H5</f>
+        <v>2.7402200698852539</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>1735985585.4335401</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" ref="O6:O8" si="2">N6-N5</f>
+        <v>2.8175601959228516</v>
+      </c>
+      <c r="R6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>1735986237.62884</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" ref="T6:T8" si="3">S6-S5</f>
+        <v>0.24800992012023926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -576,8 +714,38 @@
         <f t="shared" si="0"/>
         <v>0.6221001148223877</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1735985295.8271401</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.45300006866455078</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>1735985585.8633499</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.4298098087310791</v>
+      </c>
+      <c r="R7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>1735986237.6772499</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="3"/>
+        <v>4.8409938812255859E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -588,6 +756,57 @@
         <f t="shared" si="0"/>
         <v>10.291450023651123</v>
       </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>1735985295.9424601</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.11531996726989746</v>
+      </c>
+      <c r="M8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>1735985586.19203</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.32868003845214844</v>
+      </c>
+      <c r="R8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>1735986237.9920101</v>
+      </c>
+      <c r="T8" s="3">
+        <f t="shared" si="3"/>
+        <v>0.31476020812988281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3">
+        <f>SUM(C5:C8)</f>
+        <v>25.965020179748535</v>
+      </c>
+      <c r="I12" s="3">
+        <f>SUM(I5:I8)</f>
+        <v>10.251330137252808</v>
+      </c>
+      <c r="O12" s="3">
+        <f>SUM(O5:O8)</f>
+        <v>10.551379919052124</v>
+      </c>
+      <c r="T12" s="3">
+        <f>SUM(T5:T8)</f>
+        <v>4.8917701244354248</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -621,6 +840,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Timing.xlsx
+++ b/Timing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hannsseidelgymnasiumde-my.sharepoint.com/personal/31kran_hsgy_de/Documents/Desktop/AImediCheck/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="8_{B8F1BE71-CFC5-4369-AFE8-044D51CACBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01277F9B-D624-4ED8-9266-27B5F71CE6AC}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="8_{B8F1BE71-CFC5-4369-AFE8-044D51CACBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E69E1E12-6B2B-41F5-884D-A71EEDB35416}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAFAD1F5-585C-47E7-95DE-C016721CC028}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>Start</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Orient 250x250</t>
+  </si>
+  <si>
+    <t>4 Tabletten</t>
+  </si>
+  <si>
+    <t>DB 7 Tabletten</t>
   </si>
 </sst>
 </file>
@@ -533,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3807A430-18C7-42A5-AD6B-9A6815C075C2}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,6 +590,12 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
       <c r="S2" t="s">
         <v>21</v>
       </c>
